--- a/public/Цены.xlsx
+++ b/public/Цены.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/askerdursunov/grocery-store-webapp/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED938BF-7F59-BC41-9A6B-4AEB7D6BAB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBF2F0F-D000-1244-86C7-92B6A609679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист3" sheetId="3" r:id="rId1"/>
+    <sheet name="заморозка" sheetId="5" r:id="rId1"/>
+    <sheet name="хлеб хлебобул изделия" sheetId="3" r:id="rId2"/>
+    <sheet name="кондитерка" sheetId="4" r:id="rId3"/>
+    <sheet name="кулинария" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -25,12 +28,444 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>test2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="146">
+  <si>
+    <t>СМИТ ТУРЕЦКИЙ 1 ШТ</t>
+  </si>
+  <si>
+    <t>ПЛАЧИНДА С КУРИЦЕЙ 150ГР</t>
+  </si>
+  <si>
+    <t>ПЛАЧИНДА С МЯСОМ 150ГР</t>
+  </si>
+  <si>
+    <t>САМСА С КУРИЦЕЙ 1 ШТ</t>
+  </si>
+  <si>
+    <t>САМСА С МЯСОМ 1 ШТ</t>
+  </si>
+  <si>
+    <t>САМСА С СЫРОМ 1ШТ</t>
+  </si>
+  <si>
+    <t>САМСА УЙГУРСКАЯ 120ГР</t>
+  </si>
+  <si>
+    <t>САМСА МИКС 1 ШТ</t>
+  </si>
+  <si>
+    <t>САМСА ШАШЛЫК ФИЛЕ 1 ШТ</t>
+  </si>
+  <si>
+    <t>СЛОЙКА С СЫРОМ 110ГР</t>
+  </si>
+  <si>
+    <t>СЛОЙКА С ЯБЛОКОМ 110ГР</t>
+  </si>
+  <si>
+    <t>ТЕСТО ДЛЯ БАУРСАКОВ КГ</t>
+  </si>
+  <si>
+    <t>ТЕСТО СЛОЕНОЕ КЛАССИКА КГ</t>
+  </si>
+  <si>
+    <t>ХЛЕБ ПОЛТАВСКИЙ 500ГР</t>
+  </si>
+  <si>
+    <t>ТАРТИН РЖАНОЙ 470ГР</t>
+  </si>
+  <si>
+    <t>ТАРТИН ЗЕРНОВОЙ 470ГР</t>
+  </si>
+  <si>
+    <t>ХЛЕБ ХОМЯК 110ГР</t>
+  </si>
+  <si>
+    <t>ХЛЕБ БЕЗГЛЮТЕНОВЫЙ 500ГР</t>
+  </si>
+  <si>
+    <t>АЧМА С СЫРОМ 1ШТ</t>
+  </si>
+  <si>
+    <t>АЧМА С ШОКОЛАДОМ 1 ШТ</t>
+  </si>
+  <si>
+    <t>АЧМА СО ШПИНАТОМ 1 ШТ</t>
+  </si>
+  <si>
+    <t>ПОАЧА С КАРТОШКОЙ 100ГР</t>
+  </si>
+  <si>
+    <t>ПОАЧА С СЫРОМ 100ГР</t>
+  </si>
+  <si>
+    <t>БУЛОЧКА С ИЗЮМОМ 100ГР</t>
+  </si>
+  <si>
+    <t>БУЛОЧКА ЯРОСЛАВСКАЯ 100ГР</t>
+  </si>
+  <si>
+    <t>БУЛОЧКА С КОРИЦЕЙ 100ГР</t>
+  </si>
+  <si>
+    <t>БУЛОЧКА ВАТРУШКА 100ГР</t>
+  </si>
+  <si>
+    <t>БУЛОЧКА СЕРДЕЧКО 100ШР</t>
+  </si>
+  <si>
+    <t>ПЛЕТЕНКА С МАКОМ 130ГР</t>
+  </si>
+  <si>
+    <t>ПЛЕТЕНКА С О СГУЩЕНКОЙ 100ГР</t>
+  </si>
+  <si>
+    <t>ЭЛЕШ С КУРИЦЕЙ 150ГР</t>
+  </si>
+  <si>
+    <t>УЧПУЧМАК МЯСО/КАРТОФЕЛЬ 120ГР</t>
+  </si>
+  <si>
+    <t>СОСИСКА В ТЕСТЕ 100ГР</t>
+  </si>
+  <si>
+    <t>МИНИ ПИЦЦА 130ГР</t>
+  </si>
+  <si>
+    <t>ЛЕПЕШКА СЫРНАЯ 130ГР</t>
+  </si>
+  <si>
+    <t>СОСИСКА ПО-БАВАРСКИ ШТ</t>
+  </si>
+  <si>
+    <t>КРУАССАН КЛАССИКА 100ГР</t>
+  </si>
+  <si>
+    <t>КРУАССАН СО СГУЩЕНКОЙ-100ГР</t>
+  </si>
+  <si>
+    <t>КРУАССАН С СЫРОМ 100ГР</t>
+  </si>
+  <si>
+    <t>КРУАССАН С ШОКОЛАДОМ 100ГР</t>
+  </si>
+  <si>
+    <t>ПИРОЖКИ ПЕЧЕНЫЕ С КАРТОШКОЙ 100ГР</t>
+  </si>
+  <si>
+    <t>ПИРОЖКИ ПЕЧЕНЫЕ С КАПУСТОЙ 100ГР</t>
+  </si>
+  <si>
+    <t>ПИРОЖКИ ПЕЧЕНЫЕ ЛУК/ЯЙЦО 100ГР</t>
+  </si>
+  <si>
+    <t>ПИРОГ МЯСНОЙ С КАРТОФЕЛЕМ КГ</t>
+  </si>
+  <si>
+    <t>МИРОК КУРИНЫЙ С КАРТОФЕЛЕМ КГ</t>
+  </si>
+  <si>
+    <t>БАГЕТ 300ГР</t>
+  </si>
+  <si>
+    <t>БАГЕТ ЖИВАЯ РОЖЬ 300ГР</t>
+  </si>
+  <si>
+    <t>БАТОН МОЛОЧНЫЙ С КУНЖУТОМ 300ГР</t>
+  </si>
+  <si>
+    <t>Б МОЛОЧНЫЙ С КУНЖУТОМ В НАРЕЗКЕ</t>
+  </si>
+  <si>
+    <t>БАТОН НАРЕЗНОЙ 300ГР</t>
+  </si>
+  <si>
+    <t>БАТОН НАРЕЗНОЙ В НАРЕЗКЕ 300ГР</t>
+  </si>
+  <si>
+    <t>БАТОН ОТРУБНОЙ 300ГР</t>
+  </si>
+  <si>
+    <t>БАТОН ОТРУБНОЙ В НАРЕЗКЕ 300ГР</t>
+  </si>
+  <si>
+    <t>БАТОН ТУРЕЦКИЙ 250ГР</t>
+  </si>
+  <si>
+    <t>БУЛОЧКА ДЛЯ ГАМБУРГЕРА 3 ШТ</t>
+  </si>
+  <si>
+    <t>БУЛОЧКА ДЛЯ ХОТ ДОГА 3 ШТ</t>
+  </si>
+  <si>
+    <t>ГАЛЕТА КГ</t>
+  </si>
+  <si>
+    <t>ЛАВАШ 2 ШТ В УПАКОВКЕ</t>
+  </si>
+  <si>
+    <t>ЛЕПЕШКА РАМАЗАН 400ГР</t>
+  </si>
+  <si>
+    <t>ЛЕПЕШКА ТАШКЕНСКАЯ 400ГР</t>
+  </si>
+  <si>
+    <t>СУХАРИ КГ</t>
+  </si>
+  <si>
+    <t>ХЛЕБ РЕМЕСЛЕННЫЙ  320ГР</t>
+  </si>
+  <si>
+    <t>ХЛЕБ ЗИМНИЙ ФРУКТОВЫЙ 250ГР</t>
+  </si>
+  <si>
+    <t>ХЛЕБ КУКУРУЗНЫЙ 350ГР</t>
+  </si>
+  <si>
+    <t>ХЛЕБ КУКУРУЗНЫЙ В НАРЕЗКЕ 350ГР</t>
+  </si>
+  <si>
+    <t>ХЛЕБ ПОСОЛЬСКИЙ 400ГР</t>
+  </si>
+  <si>
+    <t>ХЛЕБ ПРЕЗИДЕНТСКИЙ 300ГР</t>
+  </si>
+  <si>
+    <t>ХЛЕБ ПРЕЗИДЕНТСКИЙ В НАРЕЗКЕ 300ГР</t>
+  </si>
+  <si>
+    <t>ХЛЕБ РЖАНОЙ НЕМЕЦКИЙ 400ГР</t>
+  </si>
+  <si>
+    <t>РОМАШКА С КУНЖУТОМ 300ГР</t>
+  </si>
+  <si>
+    <t>ХЛЕБ ТОСТОВЫЙ 300ГР</t>
+  </si>
+  <si>
+    <t>ХЛЕБ ЧЕСНОЧНЫЙ 200ГР</t>
+  </si>
+  <si>
+    <t>БУЛОЧКА СДОБНАЯ КГ</t>
+  </si>
+  <si>
+    <t>БУЛОЧКИ С НАЧИНКОЙ КГ</t>
+  </si>
+  <si>
+    <t>ХЛЕБЦЫ ЗЛАКОВЫЕ КГ</t>
+  </si>
+  <si>
+    <t>БЕЗЕ ЦВЕТНОЕ КГ</t>
+  </si>
+  <si>
+    <t>БЕЗЕ С ШОКОЛАДОМ И ОРЕХОМ КГ</t>
+  </si>
+  <si>
+    <t>ВАФЕЛЬНЫЕ ТРУБОЧКИ КГ</t>
+  </si>
+  <si>
+    <t>ОРЕШКИ СО СГУЩЕНКОЙ КГ</t>
+  </si>
+  <si>
+    <t>КЕКС ТВОРОЖНЫЙ С ЯГОДОЙ ШТ</t>
+  </si>
+  <si>
+    <t>КОРЗИНКА ТВОРОЖНАЯ С ЯГОДОЙ ШТ</t>
+  </si>
+  <si>
+    <t>КОРЗИНКА ВОСТОЧНАЯ ШТ (за кг)</t>
+  </si>
+  <si>
+    <t>КОЛЬЦА ТВОРОЖНЫЕ КГ</t>
+  </si>
+  <si>
+    <t>ЭКЛЕРЫ С КРЕМОМ ШТ</t>
+  </si>
+  <si>
+    <t>ПРОФИТРОЛИ С КРЕМОМ КГ</t>
+  </si>
+  <si>
+    <t>ПИРОГ ВОСТОЧНЫЙ КГ</t>
+  </si>
+  <si>
+    <t>ПИРОГ ТВОРОЖНЫЙ КГ</t>
+  </si>
+  <si>
+    <t>ПИРОГ ФРУКТОВЫЙ КГ</t>
+  </si>
+  <si>
+    <t>ПИРОГ ЯБЛОЧНЫЙ С КОРИЦЕЙ КГ</t>
+  </si>
+  <si>
+    <t>РУЛЕТ ШОКОЛАДНЫЙ ШТ</t>
+  </si>
+  <si>
+    <t>РУЛЕТ МАКОВЫЙ ШТ</t>
+  </si>
+  <si>
+    <t>РУЛЕТ СО СГУЩЕНКОЙ ШТ</t>
+  </si>
+  <si>
+    <t>СОЧНИК С ТВОРОГОМ ШТ</t>
+  </si>
+  <si>
+    <t>ТРАЙФЛ ДЕСЕРТ ШТ</t>
+  </si>
+  <si>
+    <t>ХВОРОСТ КГ</t>
+  </si>
+  <si>
+    <t>ЧАК ЧАК КГ</t>
+  </si>
+  <si>
+    <t>ПОНЧИК БЕРЛИНЕР ШТ</t>
+  </si>
+  <si>
+    <t>ТОРТ РЫЖИК КГ</t>
+  </si>
+  <si>
+    <t>ТОРТ ЧИЖИК КГ</t>
+  </si>
+  <si>
+    <t>ТОРТ ПЫЖИК КГ</t>
+  </si>
+  <si>
+    <t>ПЕЧЕНЬЕ АМЕРИКАНО КГ</t>
+  </si>
+  <si>
+    <t>ПЕЧЕНЬЕ КУКИ КГ</t>
+  </si>
+  <si>
+    <t>ПЕЧЕНЬЕ КУКИ ШОКОЛАД КГ</t>
+  </si>
+  <si>
+    <t>ПЕЧЕНЬЕ ИЗЮМИНКА КГ</t>
+  </si>
+  <si>
+    <t>ПЕЧЕНЬЕ КУРАБЬЕ КГ</t>
+  </si>
+  <si>
+    <t>ПЕЧЕНЬЕ С ПЕЧЕНЫМ ЯБЛОКОМ КГ</t>
+  </si>
+  <si>
+    <t>ПЕЧЕНЬЕ ДОМАШНЕЕ ТВОРОЖНОЕ КГ</t>
+  </si>
+  <si>
+    <t>ПЕЧЕНЬЕ СОЛЕНОЕ, КГ</t>
+  </si>
+  <si>
+    <t>РЕЧЕНЬЕ ТАРТУС КГ</t>
+  </si>
+  <si>
+    <t>ПЕЧЕНЬЕ БИСКОНТИ КГ</t>
+  </si>
+  <si>
+    <t>ПЛОВ ИЗ ГОВЯДИНЫ КГ</t>
+  </si>
+  <si>
+    <t>ЛАГМАН ЖАРЕНЫЙ КГ</t>
+  </si>
+  <si>
+    <t>ХОТ ДОГ КЛАССИКА ШТ</t>
+  </si>
+  <si>
+    <t>БАУРСАКИ КГ</t>
+  </si>
+  <si>
+    <t>КРУАССАН С КОЛБАСОЙ ШТ</t>
+  </si>
+  <si>
+    <t>КРУАССАН С КУРИЦЕЙ ШТ</t>
+  </si>
+  <si>
+    <t>КАПУСТА КВАШЕНАЯ КГ</t>
+  </si>
+  <si>
+    <t>САЛАТ ОЛИВЬЕ КГ</t>
+  </si>
+  <si>
+    <t>САЛАТ КРАБИК КГ</t>
+  </si>
+  <si>
+    <t>САЛАТ СЕЛЬДЬ ПОД ШУБОЙ КГ</t>
+  </si>
+  <si>
+    <t>МОРКОВЧА ПО-КОРЕЙСКИ КГ</t>
+  </si>
+  <si>
+    <t>СВЕКЛА ПОД СЫРОМ КГ</t>
+  </si>
+  <si>
+    <t>САЛАТ ВИНЕГРЕТ КГ</t>
+  </si>
+  <si>
+    <t>САЛАТ ЦЕЗАРЬ КГ</t>
+  </si>
+  <si>
+    <t>ЛАПША ПО ДОМАШНЕМУ КГ</t>
+  </si>
+  <si>
+    <t>СПАГЕТИ КГ</t>
+  </si>
+  <si>
+    <t>ПАСТА КГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> БЕФСТРОГАНОВ ИЗ КУРИЦЫ С РИСОМ 250 Г (КОМПЛЕКС №5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> КОТЛЕТА ЖАСТАР КУРИНАЯ С ПЮРЕ 250 Г (КОМПЛЕКС №9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> КУРИЦА ТЕРИЯКИ С КАРТОФЕЛЬНЫМ ПЮРЕ 250 Г (КОМПЛЕКС №14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ГУЛЯШ ИЗ ГОВЯДИНЫ С ПЮРЕ 250 Г (КОМПЛЕКС №8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> КУРИЦА ТЕРИЯКИ С РИСОМ ОТВАРНЫМ 250 Г (КОМПЛЕКС №20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> НАГГЕТСЫ С ГРЕЧКОЙ 250 Г (КОМПЛЕКС №3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ТЕФТЕЛИ ГОВЯЖЬИ С МАКАРОНАМИ 250 Г (КОМПЛЕКС №10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ФИЛЕ С ОВОЩАМИ С ЦВЕТНЫМ РИСОМ 250 Г (КОМПЛЕКС №13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> МАРИНОВАННЫЕ КРЫЛЫШКИ С РИСОМ 250 Г (КОМПЛЕКС №15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> КОТЛЕТА НАУРЫЗ КУРИНАЯ С РИСОМ 250 Г (КОМПЛЕКС №1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> МЯСО ПО ТАЙСКИ С РИСОМ 250 Г (КОМПЛЕКС №12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> НАГГЕТСЫ С ПЮРЕ 250 Г (КОМПЛЕКС №11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> БЕФСТРОГАНОВ ИЗ КУРИЦЫ С ГРЕЧКОЙ 250 Г (КОМПЛЕКС №16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> СУДАК С ЦВЕТНЫМ РИСОМ 250 Г (КОМПЛЕКС №19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> БЕДРО В МАРИНАДЕ С ГРЕЧКОЙ 250 Г (КОМПЛЕКС №7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ГОЛЕНЬ ЗАПЕЧЕННАЯ С РИСОМ 250 Г (КОМПЛЕКС №6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> КОТЛЕТА ИЗ ГОВЯДИНЫ С МАКАРОНАМИ 250 Г (КОМПЛЕКС №18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> КОТЛЕТА ИЗ ГОВЯДИНЫ С ПЮРЕ 250 Г (КОМПЛЕКС №2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> МАРИНОВАННЫЕ КРЫЛЫШКИ С ГРЕЧКОЙ 250 Г (КОМПЛЕКС №17)</t>
   </si>
 </sst>
 </file>
@@ -348,24 +783,540 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB61B51-2C70-1B46-A341-82CEC3ECB59E}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -373,14 +1324,331 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>1350</v>
+      </c>
+    </row>
     <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -406,4 +1674,812 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63116B9D-DD8D-4646-80E6-413472DCCC1B}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35">
+        <v>2400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B0EB60-1E61-E148-9ABE-02914EA8370F}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/Цены.xlsx
+++ b/public/Цены.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/askerdursunov/grocery-store-webapp/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBF2F0F-D000-1244-86C7-92B6A609679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7085655A-CD41-6142-A442-EA2869AD3E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="заморозка" sheetId="5" r:id="rId1"/>
+    <sheet name="Заморозка" sheetId="5" r:id="rId1"/>
     <sheet name="хлеб хлебобул изделия" sheetId="3" r:id="rId2"/>
     <sheet name="кондитерка" sheetId="4" r:id="rId3"/>
     <sheet name="кулинария" sheetId="6" r:id="rId4"/>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB61B51-2C70-1B46-A341-82CEC3ECB59E}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2077,7 +2077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B0EB60-1E61-E148-9ABE-02914EA8370F}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/public/Цены.xlsx
+++ b/public/Цены.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/askerdursunov/grocery-store-webapp/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7085655A-CD41-6142-A442-EA2869AD3E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A69322-0173-EA47-9817-DB281710A1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заморозка" sheetId="5" r:id="rId1"/>
-    <sheet name="хлеб хлебобул изделия" sheetId="3" r:id="rId2"/>
+    <sheet name="хлебобулочные изделия" sheetId="3" r:id="rId2"/>
     <sheet name="кондитерка" sheetId="4" r:id="rId3"/>
     <sheet name="кулинария" sheetId="6" r:id="rId4"/>
   </sheets>
@@ -786,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB61B51-2C70-1B46-A341-82CEC3ECB59E}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1681,10 +1681,13 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
